--- a/Files/college_info/all_colleges/MGIT/MGIT_placements.xlsx
+++ b/Files/college_info/all_colleges/MGIT/MGIT_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\python_project-dataset\Files\college_info\all_colleges\MGIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\DATA-INFO\MGIT_INFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E9DC4-C655-43F7-897A-98FB27A66211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DCE764-AB06-4E79-A8C1-00B20B21C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <r>
       <rPr>
@@ -831,16 +831,6 @@
         <family val="2"/>
       </rPr>
       <t>Innominds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.25 - 4</t>
     </r>
   </si>
   <si>
@@ -1538,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:G120"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1565,16 +1555,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
@@ -1596,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4">
         <v>48</v>
@@ -1610,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4">
         <v>20.100000000000001</v>
@@ -1624,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
@@ -1680,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="4">
         <v>15</v>
@@ -1694,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="4">
         <v>13</v>
@@ -1722,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -1750,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4">
         <v>8.4</v>
@@ -1918,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4">
         <v>6.1</v>
@@ -2310,7 +2300,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="4">
         <v>4.5</v>
@@ -2366,7 +2356,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="4">
         <v>4.5</v>
@@ -2380,7 +2370,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="4">
         <v>4.5</v>
@@ -2436,7 +2426,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="4">
         <v>4.25</v>
@@ -2646,7 +2636,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="4">
         <v>3.6</v>
@@ -2856,7 +2846,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" s="4">
         <v>3.5</v>
@@ -2872,8 +2862,8 @@
       <c r="B94" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>79</v>
+      <c r="C94" s="3">
+        <v>3.25</v>
       </c>
       <c r="D94" s="2">
         <v>5</v>
@@ -2940,7 +2930,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="4">
         <v>3</v>
@@ -2968,7 +2958,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C101" s="4">
         <v>3</v>
@@ -2982,7 +2972,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="4">
         <v>3</v>
@@ -3038,7 +3028,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C106" s="4">
         <v>2.76</v>
@@ -3052,7 +3042,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C107" s="4">
         <v>2.6</v>
@@ -3066,7 +3056,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C108" s="4">
         <v>2.4</v>
@@ -3094,7 +3084,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C110" s="4">
         <v>1.8</v>
@@ -3108,7 +3098,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111" s="4">
         <v>1.8</v>
@@ -3122,7 +3112,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="4">
         <v>1.8</v>

--- a/Files/college_info/all_colleges/MGIT/MGIT_placements.xlsx
+++ b/Files/college_info/all_colleges/MGIT/MGIT_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\DATA-INFO\MGIT_INFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\MGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DCE764-AB06-4E79-A8C1-00B20B21C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDEDEAF-936B-454B-9DEF-A2366EFE86FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <r>
       <rPr>
@@ -712,62 +712,521 @@
     <r>
       <rPr>
         <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>INFOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Medha Servo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Franklin Templeton</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infosys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vitwit Technologies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color rgb="FF1F2023"/>
         <rFont val="Carlito"/>
         <family val="2"/>
       </rPr>
+      <t>Stellantis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F2023"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>COGNIDA.AI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F2023"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>JIO PLATFORMS LTD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F2023"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>RUBK PVT LTD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Laser India</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Innominds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Blackridge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACL Digital</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Salesf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Digilogic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZOHO CORPORATION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMARTBRIDGE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>HCL Technologies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bigfoot Retail Solutions Pvt. Ltd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toshibha Transmissions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wellsfargo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>ROADWORKS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Audree Infotech</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Informatics Business Solutions Pvt Ltd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hexagon India Pvt Ltd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Airbus Group India Pvt Ltd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Olectra Greentech</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toshibha Mitsubishi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Soctronics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>BAKELITE HYLAM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>BUTLAS Consulting Engineers Pvt ltd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Oorja Energy Services</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mahindra &amp; Mahindra</t>
+    </r>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>OFFERS</t>
+  </si>
+  <si>
+    <t>Sl.NO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Airbus Group India Pvt Ltd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>WileyNxt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>LTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F2023"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
       <t>Ctrl-S</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>INFOR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Medha Servo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Franklin Templeton</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Infosys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vitwit Technologies</t>
-    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Byju's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>KEKA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Medcords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thundersoft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Persistent Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accenture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <t>LTI-3</t>
   </si>
   <si>
     <r>
@@ -777,293 +1236,15 @@
         <rFont val="Carlito"/>
         <family val="2"/>
       </rPr>
-      <t>Stellantis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F2023"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>COGNIDA.AI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F2023"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>JIO PLATFORMS LTD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F2023"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>RUBK PVT LTD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Laser India</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Innominds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Blackridge</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>ACL Digital</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Salesf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Digilogic</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>ZOHO CORPORATION</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>SMARTBRIDGE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>HCL Technologies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bigfoot Retail Solutions Pvt. Ltd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Toshibha Transmissions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wellsfargo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>ROADWORKS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Audree Infotech</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Informatics Business Solutions Pvt Ltd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hexagon India Pvt Ltd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Airbus Group India Pvt Ltd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Olectra Greentech</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Toshibha Mitsubishi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Soctronics</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>BAKELITE HYLAM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>BUTLAS Consulting Engineers Pvt ltd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oorja Energy Services</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mahindra &amp; Mahindra</t>
-    </r>
-  </si>
-  <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
-    <t>SALARY</t>
-  </si>
-  <si>
-    <t>OFFERS</t>
-  </si>
-  <si>
-    <t>Sl.NO</t>
+      <t>Brane Enterprises</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t>-2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1163,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1188,11 +1369,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1528,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1555,16 +1750,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
@@ -1572,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4">
         <v>70</v>
@@ -1586,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4">
         <v>48</v>
@@ -1600,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4">
         <v>20.100000000000001</v>
@@ -1614,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
@@ -1670,7 +1865,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="4">
         <v>15</v>
@@ -1684,7 +1879,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4">
         <v>13</v>
@@ -1711,8 +1906,8 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>93</v>
+      <c r="B12" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -1740,7 +1935,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4">
         <v>8.4</v>
@@ -1795,8 +1990,8 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+      <c r="B18" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="C18" s="4">
         <v>7</v>
@@ -1838,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4">
         <v>6.5</v>
@@ -1851,8 +2046,8 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
+      <c r="B22" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C22" s="4">
         <v>6.5</v>
@@ -1865,8 +2060,8 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>2</v>
+      <c r="B23" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C23" s="4">
         <v>6.5</v>
@@ -1893,8 +2088,8 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
+      <c r="B25" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C25" s="4">
         <v>6.4</v>
@@ -1908,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4">
         <v>6.1</v>
@@ -1978,7 +2173,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="4">
         <v>5.5</v>
@@ -2117,8 +2312,8 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>2</v>
+      <c r="B41" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C41" s="4">
         <v>5</v>
@@ -2187,8 +2382,8 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>66</v>
+      <c r="B46" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C46" s="4">
         <v>5</v>
@@ -2216,7 +2411,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4">
         <v>4.79</v>
@@ -2229,8 +2424,8 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>53</v>
+      <c r="B49" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C49" s="4">
         <v>4.7</v>
@@ -2285,8 +2480,8 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>43</v>
+      <c r="B53" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C53" s="4">
         <v>4.5</v>
@@ -2300,7 +2495,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="4">
         <v>4.5</v>
@@ -2356,7 +2551,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="4">
         <v>4.5</v>
@@ -2370,7 +2565,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="4">
         <v>4.5</v>
@@ -2398,7 +2593,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="4">
         <v>4.49</v>
@@ -2426,7 +2621,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="4">
         <v>4.25</v>
@@ -2524,7 +2719,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="4">
         <v>4</v>
@@ -2552,7 +2747,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="4">
         <v>4</v>
@@ -2579,8 +2774,8 @@
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>37</v>
+      <c r="B74" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C74" s="4">
         <v>4</v>
@@ -2636,7 +2831,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="4">
         <v>3.6</v>
@@ -2664,7 +2859,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="4">
         <v>3.6</v>
@@ -2677,8 +2872,8 @@
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>40</v>
+      <c r="B81" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C81" s="4">
         <v>3.6</v>
@@ -2803,8 +2998,8 @@
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>67</v>
+      <c r="B90" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C90" s="4">
         <v>3.5</v>
@@ -2846,7 +3041,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="4">
         <v>3.5</v>
@@ -2860,7 +3055,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" s="3">
         <v>3.25</v>
@@ -2930,7 +3125,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="4">
         <v>3</v>
@@ -2958,7 +3153,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101" s="4">
         <v>3</v>
@@ -2972,7 +3167,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="4">
         <v>3</v>
@@ -2986,7 +3181,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C103" s="4">
         <v>3</v>
@@ -3000,7 +3195,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C104" s="4">
         <v>3</v>
@@ -3028,7 +3223,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C106" s="4">
         <v>2.76</v>
@@ -3042,7 +3237,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C107" s="4">
         <v>2.6</v>
@@ -3056,7 +3251,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="4">
         <v>2.4</v>
@@ -3084,7 +3279,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" s="4">
         <v>1.8</v>
@@ -3098,7 +3293,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="4">
         <v>1.8</v>
@@ -3112,7 +3307,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C112" s="4">
         <v>1.8</v>
@@ -3141,6 +3336,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D113">
     <sortCondition descending="1" ref="D113"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>